--- a/Grocery.xlsx
+++ b/Grocery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d1c238cf26360b7/Documents/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{95994DFA-9CAD-47A3-8391-24B1C10B0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F853213-9DB6-4C1F-B784-D96F74089ACF}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{95994DFA-9CAD-47A3-8391-24B1C10B0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{412E5DC2-D0CC-41C4-ADCF-E6E57D835798}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{C524CD27-D857-44F2-9B9C-2EDB3ED46434}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{C524CD27-D857-44F2-9B9C-2EDB3ED46434}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Pencil</t>
   </si>
   <si>
-    <t>tbl_notebook</t>
-  </si>
-  <si>
     <t>stationary_id</t>
   </si>
   <si>
@@ -113,24 +110,15 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>data: tbl_notebook</t>
-  </si>
-  <si>
     <t>Classmate</t>
   </si>
   <si>
-    <t>tbl_pencil</t>
-  </si>
-  <si>
     <t>grade</t>
   </si>
   <si>
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>data: tbl_pencil</t>
-  </si>
-  <si>
     <t>Apsara</t>
   </si>
   <si>
@@ -201,6 +189,18 @@
   </si>
   <si>
     <t>supplier_id</t>
+  </si>
+  <si>
+    <t>tbl_stationary_notebook</t>
+  </si>
+  <si>
+    <t>data: tbl_stationary_notebook</t>
+  </si>
+  <si>
+    <t>tbl_stationary_pencil</t>
+  </si>
+  <si>
+    <t>data: tbl_stationary_pencil</t>
   </si>
 </sst>
 </file>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48710DDF-D2AC-4AFF-9C38-F6CC1C814F7E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A407E9E-166E-4560-BA31-7011FD2CFC80}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +766,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="9"/>
       <c r="F1" s="6" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -821,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>1</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>1</v>
@@ -926,7 +926,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="12"/>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" s="4">
         <v>180</v>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I12" s="4">
         <v>200</v>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I13" s="4">
         <v>300</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="15" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -1103,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>1</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>5</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F20" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F21" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>1</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="24" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="F24" s="6" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1164,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4">
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
@@ -1217,10 +1217,10 @@
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J28" s="4">
         <v>2</v>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F057FD37-9FB4-46AF-906A-ED862B5C0C45}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,14 +1273,14 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>1</v>
@@ -1341,31 +1341,33 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -1374,7 +1376,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>1</v>
@@ -1385,19 +1387,19 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1405,7 +1407,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -1414,7 +1416,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>1</v>
@@ -1425,19 +1427,19 @@
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1445,43 +1447,43 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1489,7 +1491,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -1500,7 +1502,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="G11" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>1</v>
